--- a/bh3/546889863816147237_2021-07-13_18-11-59.xlsx
+++ b/bh3/546889863816147237_2021-07-13_18-11-59.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4902233672</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:07:39</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44394.58864583333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:57:03</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44392.83128472222</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -669,10 +681,8 @@
           <t>4912746055</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:23:01</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44392.47431712963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>4909277448</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:00:40</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44391.87546296296</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -811,10 +819,8 @@
           <t>4908632734</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:33:11</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44391.81471064815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -882,10 +888,8 @@
           <t>4908102158</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:22:08</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44391.76537037037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -945,10 +949,8 @@
           <t>4902096212</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:31:07</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44391.56327546296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1024,10 +1026,8 @@
           <t>4906064119</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:07:43</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44391.54702546296</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1099,10 +1099,8 @@
           <t>4906064119</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:40:22</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44391.5280324074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1166,10 +1164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:36:26</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44391.52530092592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1245,10 +1241,8 @@
           <t>4905608005</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:31:12</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44391.48</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1321,10 +1315,8 @@
           <t>4905196366</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:16:36</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44391.42819444444</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1384,10 +1376,8 @@
           <t>4905005065</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:37:01</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44391.40070601852</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1451,10 +1441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:26:06</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44391.18479166667</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1531,10 +1519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:58:58</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44391.12428240741</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1598,10 +1584,8 @@
           <t>4903978917</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:22:46</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44391.01581018518</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1665,10 +1649,8 @@
           <t>4903933882</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:15</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44390.94947916667</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1744,10 +1726,8 @@
           <t>4903674230</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:15:04</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44390.92712962963</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1823,10 +1803,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:06:56</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44390.92148148148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1902,10 +1880,8 @@
           <t>4903588288</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:04:25</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44390.9197337963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1977,10 +1953,8 @@
           <t>4903555727</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:59:15</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44390.91614583333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2048,10 +2022,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:57:10</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44390.91469907408</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2119,10 +2091,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:56:17</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44390.91408564815</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2198,10 +2168,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:26:05</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44390.89311342593</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2278,10 +2246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:19:24</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44390.88847222222</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2353,10 +2319,8 @@
           <t>4902043581</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:09:20</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44390.88148148148</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2432,10 +2396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:04:02</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44390.87780092593</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2495,10 +2457,8 @@
           <t>4903073844</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:55:50</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44390.87210648148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2566,10 +2526,8 @@
           <t>4903061788</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:52:57</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44390.87010416666</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2645,10 +2603,8 @@
           <t>4902096023</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:44:47</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44390.86443287037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2724,10 +2680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:38:53</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44390.86033564815</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2799,10 +2753,8 @@
           <t>4902898141</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:33:51</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44390.85684027777</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2870,10 +2822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:31:11</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44390.85498842593</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2937,10 +2887,8 @@
           <t>4902898141</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:30:58</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44390.85483796296</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3004,10 +2952,8 @@
           <t>4902878978</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:28:09</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44390.85288194445</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3079,10 +3025,8 @@
           <t>4901952383</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:25:22</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44390.85094907408</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3158,10 +3102,8 @@
           <t>4902846663</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:23:01</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44390.84931712963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3225,10 +3167,8 @@
           <t>4902823543</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:19:40</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44390.84699074074</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3296,10 +3236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:18:54</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44390.84645833333</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3363,10 +3301,8 @@
           <t>4902805147</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:16:07</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44390.84452546296</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3434,10 +3370,8 @@
           <t>4902773357</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:30</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44390.84201388889</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3501,10 +3435,8 @@
           <t>4902725737</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:27</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44390.83642361111</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3580,10 +3512,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:13</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44390.83278935185</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3655,10 +3585,8 @@
           <t>4902663347</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:38</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44390.83099537037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3726,10 +3654,8 @@
           <t>4902609036</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:19</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44390.82591435185</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3805,10 +3731,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:02</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44390.82571759259</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3876,10 +3800,8 @@
           <t>4902611868</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:01</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44390.82570601852</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3955,10 +3877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:33</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44390.8246875</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4030,10 +3950,8 @@
           <t>4902594441</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:26</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44390.82460648148</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4105,10 +4023,8 @@
           <t>4901952383</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:20</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44390.82453703704</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4184,10 +4100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:07</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44390.82438657407</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4259,10 +4173,8 @@
           <t>4902596020</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:20</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44390.8238425926</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4330,10 +4242,8 @@
           <t>4902595974</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:19</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44390.82383101852</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4409,10 +4319,8 @@
           <t>4902576127</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:04</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44390.82226851852</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4484,10 +4392,8 @@
           <t>4902115633</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44390.82159722222</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4555,10 +4461,8 @@
           <t>4902115633</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:26</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44390.81905092593</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4634,10 +4538,8 @@
           <t>4902538447</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:38:50</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44390.81863425926</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4713,10 +4615,8 @@
           <t>4902116937</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:38:00</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44390.81805555556</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4792,10 +4692,8 @@
           <t>4902523815</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:36:56</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44390.81731481481</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4859,10 +4757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:35:41</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44390.81644675926</v>
       </c>
       <c r="I61" t="n">
         <v>4</v>
@@ -4926,10 +4822,8 @@
           <t>4902510305</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:34:35</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44390.81568287037</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5001,10 +4895,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:32:44</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44390.81439814815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5080,10 +4972,8 @@
           <t>4902442401</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:25:18</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44390.80923611111</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5155,10 +5045,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:23:18</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44390.80784722222</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5230,10 +5118,8 @@
           <t>4902418614</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:22:37</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44390.80737268519</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5305,10 +5191,8 @@
           <t>4902425318</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:22:23</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44390.80721064815</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5384,10 +5268,8 @@
           <t>4902043581</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:21:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44390.80675925926</v>
       </c>
       <c r="I68" t="n">
         <v>4</v>
@@ -5463,10 +5345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:21:42</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44390.80673611111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5530,10 +5410,8 @@
           <t>4902413024</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:21:28</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44390.80657407407</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5597,10 +5475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:20:38</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44390.80599537037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5676,10 +5552,8 @@
           <t>4902402621</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:19:59</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44390.80554398148</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5751,10 +5625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:16:48</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44390.80333333334</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5830,10 +5702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:15:27</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44390.80239583334</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5905,10 +5775,8 @@
           <t>4902364356</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:14:51</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44390.80197916667</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5986,10 +5854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:13:55</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44390.80133101852</v>
       </c>
       <c r="I76" t="n">
         <v>6</v>
@@ -6053,10 +5919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:13:33</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44390.80107638889</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6120,10 +5984,8 @@
           <t>4902361139</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:13:33</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44390.80107638889</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6195,10 +6057,8 @@
           <t>4902357268</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:13:04</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44390.80074074074</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6270,10 +6130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:12:26</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44390.80030092593</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6337,10 +6195,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:11:02</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44390.7993287037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6408,10 +6264,8 @@
           <t>4902340999</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:10:21</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44390.79885416666</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6479,10 +6333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:08:01</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44390.79723379629</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6558,10 +6410,8 @@
           <t>4902304012</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:06:33</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44390.79621527778</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6637,10 +6487,8 @@
           <t>4902311359</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:06:25</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44390.79612268518</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6704,10 +6552,8 @@
           <t>4902305641</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:05:41</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44390.79561342593</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6783,10 +6629,8 @@
           <t>4902301084</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:05:22</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44390.79539351852</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6862,10 +6706,8 @@
           <t>4902300354</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:05:06</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44390.79520833334</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6933,10 +6775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:04:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44390.79505787037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7001,10 +6841,8 @@
           <t>4901952383</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:04:42</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44390.79493055555</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7080,10 +6918,8 @@
           <t>4902295519</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:04:02</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44390.79446759259</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7151,10 +6987,8 @@
           <t>4902284709</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:03:43</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44390.79424768518</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7226,10 +7060,8 @@
           <t>4902279369</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:02:59</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44390.79373842593</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7301,10 +7133,8 @@
           <t>4902280369</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:01:59</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44390.79304398148</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7376,10 +7206,8 @@
           <t>4902276528</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:01:44</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44390.79287037037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7469,10 +7297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:00:29</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44390.79200231482</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7544,10 +7370,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:59:50</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44390.79155092593</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7615,10 +7439,8 @@
           <t>4902256959</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:59:46</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44390.79150462963</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7695,10 +7517,8 @@
           <t>4902233672</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:57:33</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44390.78996527778</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7766,10 +7586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:57:09</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44390.7896875</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7833,10 +7651,8 @@
           <t>4902233672</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:56:24</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44390.78916666667</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7912,10 +7728,8 @@
           <t>4902236366</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:56:18</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44390.78909722222</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7983,10 +7797,8 @@
           <t>4902227146</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:55:26</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44390.78849537037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8054,10 +7866,8 @@
           <t>4902116937</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:55:20</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44390.78842592592</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8133,10 +7943,8 @@
           <t>4901952383</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:55:10</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44390.78831018518</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8204,10 +8012,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:53:45</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44390.78732638889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8275,10 +8081,8 @@
           <t>4902207723</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:52:49</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44390.78667824074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8346,10 +8150,8 @@
           <t>4902207504</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:52:44</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44390.78662037037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8413,10 +8215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:52:37</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44390.78653935185</v>
       </c>
       <c r="I109" t="n">
         <v>4</v>
@@ -8476,10 +8276,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:51:09</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44390.78552083333</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8555,10 +8353,8 @@
           <t>4902191593</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:50:25</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44390.78501157407</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8634,10 +8430,8 @@
           <t>4902190078</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:49:47</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44390.78457175926</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8709,10 +8503,8 @@
           <t>4902182647</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:49:04</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44390.78407407407</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8784,10 +8576,8 @@
           <t>4902176391</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:48:17</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44390.78353009259</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8863,10 +8653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:48:12</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44390.78347222223</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8942,10 +8730,8 @@
           <t>4902156648</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:47:28</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44390.78296296296</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9009,10 +8795,8 @@
           <t>4902171030</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:47:14</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44390.78280092592</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9089,10 +8873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:47:09</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44390.78274305556</v>
       </c>
       <c r="I118" t="n">
         <v>9</v>
@@ -9168,10 +8950,8 @@
           <t>4902170714</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:47:06</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44390.78270833333</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9243,10 +9023,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:46:15</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44390.78211805555</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9310,10 +9088,8 @@
           <t>4902073946</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:45:43</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44390.78174768519</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9385,10 +9161,8 @@
           <t>4902156648</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:45:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44390.78152777778</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9456,10 +9230,8 @@
           <t>4902154235</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:45:23</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44390.7815162037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9535,10 +9307,8 @@
           <t>4902088281</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:45:11</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44390.78137731482</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9614,10 +9384,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:45:01</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44390.78126157408</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9693,10 +9461,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:44:58</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44390.78122685185</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9772,10 +9538,8 @@
           <t>4902088281</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:44:50</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44390.78113425926</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9847,10 +9611,8 @@
           <t>4902144939</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:44:42</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44390.78104166667</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9918,10 +9680,8 @@
           <t>4902143856</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:44:15</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44390.78072916667</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9989,10 +9749,8 @@
           <t>4902150983</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:44:04</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44390.78060185185</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10068,10 +9826,8 @@
           <t>4902150214</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:43:45</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44390.78038194445</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -10147,10 +9903,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:43:36</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44390.78027777778</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10219,10 +9973,8 @@
           <t>4902088281</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:43:24</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44390.78013888889</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10298,10 +10050,8 @@
           <t>4902088281</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:42:54</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44390.77979166667</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10377,10 +10127,8 @@
           <t>4902126637</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:42:53</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44390.77978009259</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10444,10 +10192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:42:50</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44390.77974537037</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10511,10 +10257,8 @@
           <t>4902114125</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:42:14</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44390.77932870371</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10578,10 +10322,8 @@
           <t>4902135880</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:41:57</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44390.77913194444</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10653,10 +10395,8 @@
           <t>4902127622</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:41:41</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44390.77894675926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10728,10 +10468,8 @@
           <t>4902116937</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:41:23</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44390.77873842593</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10795,10 +10533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:41:20</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44390.77870370371</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10866,10 +10602,8 @@
           <t>4902126637</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:41:15</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44390.77864583334</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10933,10 +10667,8 @@
           <t>4902123491</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:40:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44390.77844907407</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -11008,10 +10740,8 @@
           <t>4902125840</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:40:55</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44390.77841435185</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11083,10 +10813,8 @@
           <t>4902114125</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:40:15</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44390.77795138889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11150,10 +10878,8 @@
           <t>4902096212</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:40:13</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44390.77792824074</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11229,10 +10955,8 @@
           <t>4902096023</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:40:04</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44390.77782407407</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11296,10 +11020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:39:50</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44390.77766203704</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11372,10 +11094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:39:44</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44390.7775925926</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11451,10 +11171,8 @@
           <t>4902116937</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:39:41</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44390.77755787037</v>
       </c>
       <c r="I150" t="n">
         <v>9</v>
@@ -11526,10 +11244,8 @@
           <t>4902116229</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:39:22</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44390.77733796297</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -11601,10 +11317,8 @@
           <t>4902115633</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:39:06</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44390.77715277778</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -11675,10 +11389,8 @@
           <t>4902110921</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:38:56</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44390.77703703703</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11750,10 +11462,8 @@
           <t>4902096212</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:38:46</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44390.7769212963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11817,10 +11527,8 @@
           <t>4902096212</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:38:40</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44390.77685185185</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11892,10 +11600,8 @@
           <t>4902107866</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:38:38</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44390.7768287037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11971,10 +11677,8 @@
           <t>4902107671</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:38:33</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44390.77677083333</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12050,10 +11754,8 @@
           <t>4902107080</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:38:20</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44390.77662037037</v>
       </c>
       <c r="I158" t="n">
         <v>26</v>
@@ -12114,10 +11816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:37:01</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44390.77570601852</v>
       </c>
       <c r="I159" t="n">
         <v>5</v>
@@ -12193,10 +11893,8 @@
           <t>4902096212</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:37:00</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44390.77569444444</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -12260,10 +11958,8 @@
           <t>4902096023</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:36:55</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44390.77563657407</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12339,10 +12035,8 @@
           <t>4902084723</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:36:29</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44390.77533564815</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12406,10 +12100,8 @@
           <t>4902088281</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:35:49</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44390.77487268519</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12485,10 +12177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:35:37</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44390.77473379629</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12556,10 +12246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:35:17</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44390.77450231482</v>
       </c>
       <c r="I165" t="n">
         <v>12</v>
@@ -12623,10 +12311,8 @@
           <t>4902079426</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:35:17</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44390.77450231482</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -12698,10 +12384,8 @@
           <t>4902073946</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:34:50</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44390.77418981482</v>
       </c>
       <c r="I167" t="n">
         <v>7</v>
@@ -12765,10 +12449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:34:48</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44390.77416666667</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12836,10 +12518,8 @@
           <t>4902074339</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:34:15</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44390.77378472222</v>
       </c>
       <c r="I169" t="n">
         <v>4</v>
@@ -12915,10 +12595,8 @@
           <t>4902073946</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:34:05</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44390.77366898148</v>
       </c>
       <c r="I170" t="n">
         <v>7</v>
@@ -12994,10 +12672,8 @@
           <t>4902073645</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:33:58</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44390.77358796296</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13065,10 +12741,8 @@
           <t>4902068594</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:33:47</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44390.77346064815</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -13140,10 +12814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:33:16</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44390.77310185185</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13207,10 +12879,8 @@
           <t>4902067301</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:33:12</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44390.77305555555</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -13286,10 +12956,8 @@
           <t>4902066180</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:32:42</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44390.77270833333</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13365,10 +13033,8 @@
           <t>4902059784</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:32:22</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44390.77247685185</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13446,10 +13112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:32:09</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44390.77232638889</v>
       </c>
       <c r="I177" t="n">
         <v>14</v>
@@ -13522,10 +13186,8 @@
           <t>4902053157</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:31:21</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44390.77177083334</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13601,10 +13263,8 @@
           <t>4902057183</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:31:20</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44390.77175925926</v>
       </c>
       <c r="I179" t="n">
         <v>15</v>
@@ -13677,10 +13337,8 @@
           <t>4902055840</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:30:48</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44390.77138888889</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13756,10 +13414,8 @@
           <t>4902051400</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:30:35</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44390.77123842593</v>
       </c>
       <c r="I181" t="n">
         <v>12</v>
@@ -13823,10 +13479,8 @@
           <t>4902050423</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:30:09</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44390.7709375</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13894,10 +13548,8 @@
           <t>4902050254</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:30:04</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44390.77087962963</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13973,10 +13625,8 @@
           <t>4902043581</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:29:51</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44390.77072916667</v>
       </c>
       <c r="I184" t="n">
         <v>11</v>
@@ -14052,10 +13702,8 @@
           <t>4902043373</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:29:46</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44390.7706712963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14123,10 +13771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:29:39</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44390.77059027777</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14203,10 +13849,8 @@
           <t>4902045113</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:29:32</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44390.77050925926</v>
       </c>
       <c r="I187" t="n">
         <v>4</v>
@@ -14282,10 +13926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:29:16</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44390.77032407407</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14349,10 +13991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:29:08</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44390.77023148148</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14416,10 +14056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:29:07</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44390.7702199074</v>
       </c>
       <c r="I190" t="n">
         <v>370</v>
@@ -14483,10 +14121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:28:53</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44390.77005787037</v>
       </c>
       <c r="I191" t="n">
         <v>19</v>
@@ -14554,10 +14190,8 @@
           <t>4902011377</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:28:32</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44390.76981481481</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14630,10 +14264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:28:14</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44390.76960648148</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14705,10 +14337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:28:02</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44390.7694675926</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14776,10 +14406,8 @@
           <t>4902031180</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:27:53</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44390.76936342593</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14847,10 +14475,8 @@
           <t>4902027168</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:27:12</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44390.76888888889</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14914,10 +14540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:26:52</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44390.76865740741</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14985,10 +14609,8 @@
           <t>4902023136</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:26:50</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44390.76863425926</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15060,10 +14682,8 @@
           <t>4902022792</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:26:41</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44390.7685300926</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15131,10 +14751,8 @@
           <t>4902025344</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:26:26</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44390.76835648148</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15210,10 +14828,8 @@
           <t>4902011377</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:25:45</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44390.76788194444</v>
       </c>
       <c r="I201" t="n">
         <v>18</v>
@@ -15289,10 +14905,8 @@
           <t>4902020618</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:25:42</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44390.76784722223</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15356,10 +14970,8 @@
           <t>4902013028</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:25:29</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44390.76769675926</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15427,10 +15039,8 @@
           <t>4902015294</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:25:26</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44390.76766203704</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15502,10 +15112,8 @@
           <t>4902011864</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:25:00</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44390.76736111111</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15581,10 +15189,8 @@
           <t>4902011778</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:58</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44390.76733796296</v>
       </c>
       <c r="I206" t="n">
         <v>21</v>
@@ -15656,10 +15262,8 @@
           <t>4902011377</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44390.76722222222</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15731,10 +15335,8 @@
           <t>4902003701</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:48</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44390.76722222222</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15802,10 +15404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:47</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44390.76721064815</v>
       </c>
       <c r="I209" t="n">
         <v>10</v>
@@ -15881,10 +15481,8 @@
           <t>4902003541</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:44</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44390.76717592592</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15956,10 +15554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:42</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44390.76715277778</v>
       </c>
       <c r="I211" t="n">
         <v>24</v>
@@ -16019,10 +15615,8 @@
           <t>4902002444</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:14</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44390.7668287037</v>
       </c>
       <c r="I212" t="n">
         <v>4</v>
@@ -16086,10 +15680,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:11</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44390.76679398148</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16161,10 +15753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:09</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44390.76677083333</v>
       </c>
       <c r="I214" t="n">
         <v>6</v>
@@ -16232,10 +15822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:08</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44390.76675925926</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16303,10 +15891,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:07</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44390.76674768519</v>
       </c>
       <c r="I216" t="n">
         <v>10</v>
@@ -16378,10 +15964,8 @@
           <t>4901979633</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:23:46</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44390.76650462963</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16453,10 +16037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:23:33</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44390.76635416667</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16532,10 +16114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:23:29</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44390.76630787037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16603,10 +16183,8 @@
           <t>4902005200</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:23:22</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44390.76622685185</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16674,10 +16252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:22:43</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44390.76577546296</v>
       </c>
       <c r="I221" t="n">
         <v>6</v>
@@ -16753,10 +16329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:22:38</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44390.76571759259</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16816,10 +16390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:22:20</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44390.76550925926</v>
       </c>
       <c r="I223" t="n">
         <v>12</v>
@@ -16896,10 +16468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:22:14</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44390.76543981482</v>
       </c>
       <c r="I224" t="n">
         <v>9</v>
@@ -16977,10 +16547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:21:54</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44390.76520833333</v>
       </c>
       <c r="I225" t="n">
         <v>57</v>
@@ -17056,10 +16624,8 @@
           <t>4901986524</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:21:31</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44390.76494212963</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -17119,10 +16685,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:21:04</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44390.76462962963</v>
       </c>
       <c r="I227" t="n">
         <v>9</v>
@@ -17198,10 +16762,8 @@
           <t>4901979633</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:21:02</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44390.76460648148</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17277,10 +16839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:20:54</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44390.76451388889</v>
       </c>
       <c r="I229" t="n">
         <v>24</v>
@@ -17348,10 +16908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:20:44</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44390.76439814815</v>
       </c>
       <c r="I230" t="n">
         <v>6</v>
@@ -17415,10 +16973,8 @@
           <t>4901981600</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:20:44</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44390.76439814815</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17486,10 +17042,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:20:41</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44390.76436342593</v>
       </c>
       <c r="I232" t="n">
         <v>10</v>
@@ -17553,10 +17107,8 @@
           <t>4901974067</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:20:24</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44390.76416666667</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17632,10 +17184,8 @@
           <t>4901980590</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:20:19</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44390.7641087963</v>
       </c>
       <c r="I234" t="n">
         <v>46</v>
@@ -17711,10 +17261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:19:49</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44390.76376157408</v>
       </c>
       <c r="I235" t="n">
         <v>375</v>
@@ -17786,10 +17334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:19:04</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44390.76324074074</v>
       </c>
       <c r="I236" t="n">
         <v>164</v>
@@ -17857,10 +17403,8 @@
           <t>4901967026</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:18:52</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44390.76310185185</v>
       </c>
       <c r="I237" t="n">
         <v>30</v>
@@ -17932,10 +17476,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:18:41</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44390.76297453704</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18007,10 +17549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:18:32</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44390.76287037037</v>
       </c>
       <c r="I239" t="n">
         <v>37</v>
@@ -18082,10 +17622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:18:14</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44390.76266203704</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18157,10 +17695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:17:02</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44390.7618287037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18232,10 +17768,8 @@
           <t>4901952383</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:16:56</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44390.76175925926</v>
       </c>
       <c r="I242" t="n">
         <v>5</v>
@@ -18311,10 +17845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:16:39</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44390.7615625</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18378,10 +17910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:16:29</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44390.76144675926</v>
       </c>
       <c r="I244" t="n">
         <v>78</v>
@@ -18449,10 +17979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:16:19</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44390.76133101852</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18520,10 +18048,8 @@
           <t>4901950381</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:16:05</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44390.76116898148</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -18591,10 +18117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:15:32</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44390.76078703703</v>
       </c>
       <c r="I247" t="n">
         <v>152</v>
@@ -18666,10 +18190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:15:31</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44390.76077546296</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18733,10 +18255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:15:24</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44390.76069444444</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18800,10 +18320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:15:12</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44390.76055555556</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18871,10 +18389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:15:02</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44390.76043981482</v>
       </c>
       <c r="I251" t="n">
         <v>2</v>
@@ -18942,10 +18458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:14:57</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44390.76038194444</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -19013,10 +18527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:14:24</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44390.76</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19084,10 +18596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:14:06</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44390.75979166666</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19155,10 +18665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:14:02</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44390.75974537037</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19222,10 +18730,8 @@
           <t>4901929746</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:48</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44390.75958333333</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19293,10 +18799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:42</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44390.75951388889</v>
       </c>
       <c r="I257" t="n">
         <v>2</v>
@@ -19372,10 +18876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:34</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44390.75942129629</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19447,10 +18949,8 @@
           <t>4901931578</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:32</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44390.75939814815</v>
       </c>
       <c r="I259" t="n">
         <v>40</v>
@@ -19522,10 +19022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:28</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44390.75935185186</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19593,10 +19091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:22</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44390.75928240741</v>
       </c>
       <c r="I261" t="n">
         <v>33</v>
@@ -19664,10 +19160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:21</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44390.75927083333</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19735,10 +19229,8 @@
           <t>4901931105</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:20</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44390.75925925926</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19820,10 +19312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:15</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44390.75920138889</v>
       </c>
       <c r="I264" t="n">
         <v>127</v>
@@ -19887,10 +19377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:15</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44390.75920138889</v>
       </c>
       <c r="I265" t="n">
         <v>3</v>
@@ -19962,10 +19450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:14</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44390.75918981482</v>
       </c>
       <c r="I266" t="n">
         <v>27</v>
@@ -20029,10 +19515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:09</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44390.75913194445</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20108,10 +19592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:13:04</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44390.75907407407</v>
       </c>
       <c r="I268" t="n">
         <v>713</v>
@@ -20187,10 +19669,8 @@
           <t>4901919533</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:40</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44390.75879629629</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20262,10 +19742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44390.75878472222</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20329,10 +19807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:35</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44390.75873842592</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20404,10 +19880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:33</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44390.75871527778</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20479,10 +19953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:22</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44390.75858796296</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20554,10 +20026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:21</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44390.75857638889</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20629,10 +20099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:20</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44390.75856481482</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20704,10 +20172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:18</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44390.75854166667</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20783,10 +20249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:12:18</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44390.75854166667</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
